--- a/滋賀県民スポーツ大会申込書.xlsx
+++ b/滋賀県民スポーツ大会申込書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb4d241667b872f9/MyPrograms/競泳エントリーシステム/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{7D9AC714-1F3F-4560-8AB5-B374829EE374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04132BCF-E063-4AC6-B840-70FBB0D1894F}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{7D9AC714-1F3F-4560-8AB5-B374829EE374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFB1A897-1FE9-453F-868A-26BDC45CD8F9}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="0" windowWidth="18832" windowHeight="12818" activeTab="1" xr2:uid="{1DA7689B-2508-4AB9-929E-7F09F3B6F5D7}"/>
+    <workbookView xWindow="-1132" yWindow="983" windowWidth="19717" windowHeight="11557" activeTab="1" xr2:uid="{1DA7689B-2508-4AB9-929E-7F09F3B6F5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="記入にあたって" sheetId="6" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="161">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -2103,7 +2103,7 @@
   <dimension ref="B1:C22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -2259,7 +2259,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.7"/>
@@ -2287,7 +2287,9 @@
       <c r="B1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="41"/>
+      <c r="C1" s="41" t="s">
+        <v>64</v>
+      </c>
       <c r="D1" s="42"/>
       <c r="E1" s="42"/>
       <c r="F1" s="43"/>
@@ -2302,9 +2304,9 @@
       <c r="M1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="37" t="e">
+      <c r="N1" s="37">
         <f>VLOOKUP(teamName,teamCodeTable,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>901</v>
       </c>
       <c r="Q1" s="21"/>
     </row>
@@ -2348,9 +2350,9 @@
       <c r="M2" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="37" t="e">
+      <c r="N2" s="37" t="str">
         <f>VLOOKUP(teamName,teamCodeTable,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>ｵｵﾂｼ</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>54</v>
@@ -7497,7 +7499,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:J1"/>
@@ -7582,7 +7584,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.7"/>
